--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N2">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O2">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P2">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q2">
-        <v>1018.362996914789</v>
+        <v>989.8433961889266</v>
       </c>
       <c r="R2">
-        <v>9165.266972233105</v>
+        <v>8908.59056570034</v>
       </c>
       <c r="S2">
-        <v>0.004303633549744872</v>
+        <v>0.005150626022895378</v>
       </c>
       <c r="T2">
-        <v>0.004303633549744871</v>
+        <v>0.005150626022895378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.253742</v>
       </c>
       <c r="O3">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P3">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q3">
-        <v>396.9136471994046</v>
+        <v>426.6433737539559</v>
       </c>
       <c r="R3">
-        <v>3572.222824794642</v>
+        <v>3839.790363785603</v>
       </c>
       <c r="S3">
-        <v>0.0016773693600553</v>
+        <v>0.002220028412386945</v>
       </c>
       <c r="T3">
-        <v>0.0016773693600553</v>
+        <v>0.002220028412386945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N4">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O4">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P4">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q4">
-        <v>2347.22042105408</v>
+        <v>4411.599572784283</v>
       </c>
       <c r="R4">
-        <v>21124.98378948672</v>
+        <v>39704.39615505855</v>
       </c>
       <c r="S4">
-        <v>0.009919426160709044</v>
+        <v>0.02295565101475903</v>
       </c>
       <c r="T4">
-        <v>0.009919426160709042</v>
+        <v>0.02295565101475903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N5">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O5">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P5">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q5">
-        <v>302.8651680849642</v>
+        <v>234.0843452838593</v>
       </c>
       <c r="R5">
-        <v>2725.786512764678</v>
+        <v>2106.759107554734</v>
       </c>
       <c r="S5">
-        <v>0.001279917575921737</v>
+        <v>0.001218052193926392</v>
       </c>
       <c r="T5">
-        <v>0.001279917575921736</v>
+        <v>0.001218052193926392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N6">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O6">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P6">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q6">
-        <v>3395.974992346376</v>
+        <v>2224.565687611217</v>
       </c>
       <c r="R6">
-        <v>30563.77493111738</v>
+        <v>20021.09118850096</v>
       </c>
       <c r="S6">
-        <v>0.01435149544458492</v>
+        <v>0.01157547341767947</v>
       </c>
       <c r="T6">
-        <v>0.01435149544458492</v>
+        <v>0.01157547341767946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N7">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O7">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P7">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q7">
-        <v>22417.10578314433</v>
+        <v>20270.96610292161</v>
       </c>
       <c r="R7">
-        <v>201753.952048299</v>
+        <v>182438.6949262945</v>
       </c>
       <c r="S7">
-        <v>0.09473538299093578</v>
+        <v>0.1054794787952601</v>
       </c>
       <c r="T7">
-        <v>0.0947353829909358</v>
+        <v>0.1054794787952601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.253742</v>
       </c>
       <c r="O8">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P8">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q8">
         <v>8737.213786242064</v>
@@ -948,10 +948,10 @@
         <v>78634.92407617859</v>
       </c>
       <c r="S8">
-        <v>0.0369237359327492</v>
+        <v>0.04546387930483228</v>
       </c>
       <c r="T8">
-        <v>0.0369237359327492</v>
+        <v>0.04546387930483228</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N9">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O9">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P9">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q9">
-        <v>51669.08915046591</v>
+        <v>90344.98360436107</v>
       </c>
       <c r="R9">
-        <v>465021.8023541932</v>
+        <v>813104.8524392496</v>
       </c>
       <c r="S9">
-        <v>0.2183551702353439</v>
+        <v>0.4701079235183002</v>
       </c>
       <c r="T9">
-        <v>0.218355170235344</v>
+        <v>0.4701079235183002</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N10">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O10">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P10">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q10">
-        <v>6666.935593260293</v>
+        <v>4793.804602569711</v>
       </c>
       <c r="R10">
-        <v>60002.42033934264</v>
+        <v>43144.2414231274</v>
       </c>
       <c r="S10">
-        <v>0.02817467620098927</v>
+        <v>0.02494444558577276</v>
       </c>
       <c r="T10">
-        <v>0.02817467620098928</v>
+        <v>0.02494444558577276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N11">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O11">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P11">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q11">
-        <v>74755.20111294008</v>
+        <v>45556.79799543017</v>
       </c>
       <c r="R11">
-        <v>672796.8100164608</v>
+        <v>410011.1819588715</v>
       </c>
       <c r="S11">
-        <v>0.315917794050105</v>
+        <v>0.2370536896831152</v>
       </c>
       <c r="T11">
-        <v>0.3159177940501051</v>
+        <v>0.2370536896831151</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N12">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O12">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P12">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q12">
-        <v>4133.199131144561</v>
+        <v>667.53630373928</v>
       </c>
       <c r="R12">
-        <v>37198.79218030105</v>
+        <v>6007.82673365352</v>
       </c>
       <c r="S12">
-        <v>0.01746702747690121</v>
+        <v>0.00347350891111132</v>
       </c>
       <c r="T12">
-        <v>0.01746702747690121</v>
+        <v>0.003473508911111319</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.253742</v>
       </c>
       <c r="O13">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P13">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q13">
-        <v>1610.941429248796</v>
+        <v>287.722221340368</v>
       </c>
       <c r="R13">
-        <v>14498.47286323916</v>
+        <v>2589.499992063312</v>
       </c>
       <c r="S13">
-        <v>0.006807888348843039</v>
+        <v>0.001497155576636398</v>
       </c>
       <c r="T13">
-        <v>0.006807888348843038</v>
+        <v>0.001497155576636398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N14">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O14">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P14">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q14">
-        <v>9526.592614123882</v>
+        <v>2975.1199873966</v>
       </c>
       <c r="R14">
-        <v>85739.33352711493</v>
+        <v>26776.0798865694</v>
       </c>
       <c r="S14">
-        <v>0.04025967529565078</v>
+        <v>0.01548096445086181</v>
       </c>
       <c r="T14">
-        <v>0.04025967529565078</v>
+        <v>0.01548096445086181</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N15">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O15">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P15">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q15">
-        <v>1229.229708242697</v>
+        <v>157.863152106328</v>
       </c>
       <c r="R15">
-        <v>11063.06737418427</v>
+        <v>1420.768368956952</v>
       </c>
       <c r="S15">
-        <v>0.005194762799476524</v>
+        <v>0.0008214370701726166</v>
       </c>
       <c r="T15">
-        <v>0.005194762799476523</v>
+        <v>0.0008214370701726165</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N16">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O16">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P16">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q16">
-        <v>13783.14111007429</v>
+        <v>1500.215450495152</v>
       </c>
       <c r="R16">
-        <v>124048.2699906686</v>
+        <v>13501.93905445637</v>
       </c>
       <c r="S16">
-        <v>0.05824798100666542</v>
+        <v>0.00780633458688572</v>
       </c>
       <c r="T16">
-        <v>0.0582479810066654</v>
+        <v>0.007806334586885719</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N17">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O17">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P17">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q17">
-        <v>445.8679950443474</v>
+        <v>786.6491794044902</v>
       </c>
       <c r="R17">
-        <v>4012.811955399127</v>
+        <v>7079.842614640412</v>
       </c>
       <c r="S17">
-        <v>0.00188425194949507</v>
+        <v>0.004093309860862805</v>
       </c>
       <c r="T17">
-        <v>0.00188425194949507</v>
+        <v>0.004093309860862805</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.253742</v>
       </c>
       <c r="O18">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P18">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q18">
-        <v>173.7799710110106</v>
+        <v>339.062382144594</v>
       </c>
       <c r="R18">
-        <v>1564.019739099096</v>
+        <v>3051.561439301346</v>
       </c>
       <c r="S18">
-        <v>0.0007343995370829988</v>
+        <v>0.001764302853949151</v>
       </c>
       <c r="T18">
-        <v>0.0007343995370829988</v>
+        <v>0.001764302853949151</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N19">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O19">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P19">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q19">
-        <v>1027.679193208255</v>
+        <v>3505.990136574675</v>
       </c>
       <c r="R19">
-        <v>9249.112738874297</v>
+        <v>31553.91122917208</v>
       </c>
       <c r="S19">
-        <v>0.004343004083676323</v>
+        <v>0.01824333435266905</v>
       </c>
       <c r="T19">
-        <v>0.004343004083676324</v>
+        <v>0.01824333435266905</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N20">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O20">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P20">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q20">
-        <v>132.6028986441182</v>
+        <v>186.031708488399</v>
       </c>
       <c r="R20">
-        <v>1193.426087797064</v>
+        <v>1674.285376395591</v>
       </c>
       <c r="S20">
-        <v>0.0005603839545693907</v>
+        <v>0.0009680114677869227</v>
       </c>
       <c r="T20">
-        <v>0.0005603839545693907</v>
+        <v>0.0009680114677869224</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N21">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O21">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P21">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q21">
-        <v>1486.853475278931</v>
+        <v>1767.908721145566</v>
       </c>
       <c r="R21">
-        <v>13381.68127751038</v>
+        <v>15911.1784903101</v>
       </c>
       <c r="S21">
-        <v>0.006283488814058494</v>
+        <v>0.009199270006038467</v>
       </c>
       <c r="T21">
-        <v>0.006283488814058494</v>
+        <v>0.009199270006038464</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N22">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O22">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P22">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q22">
-        <v>4281.801046579216</v>
+        <v>240.6468145276678</v>
       </c>
       <c r="R22">
-        <v>38536.20941921294</v>
+        <v>2165.82133074901</v>
       </c>
       <c r="S22">
-        <v>0.01809502377169828</v>
+        <v>0.001252199842930012</v>
       </c>
       <c r="T22">
-        <v>0.01809502377169828</v>
+        <v>0.001252199842930012</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.253742</v>
       </c>
       <c r="O23">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P23">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q23">
-        <v>1668.859998967725</v>
+        <v>103.7238508925006</v>
       </c>
       <c r="R23">
-        <v>15019.73999070952</v>
+        <v>933.514658032506</v>
       </c>
       <c r="S23">
-        <v>0.007052654017421701</v>
+        <v>0.0005397245338593597</v>
       </c>
       <c r="T23">
-        <v>0.007052654017421701</v>
+        <v>0.0005397245338593597</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N24">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O24">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P24">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q24">
-        <v>9869.104519576746</v>
+        <v>1072.530653080731</v>
       </c>
       <c r="R24">
-        <v>88821.94067619072</v>
+        <v>9652.775877726575</v>
       </c>
       <c r="S24">
-        <v>0.04170714121100683</v>
+        <v>0.005580887151825992</v>
       </c>
       <c r="T24">
-        <v>0.04170714121100683</v>
+        <v>0.005580887151825992</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N25">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O25">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P25">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q25">
-        <v>1273.424503450511</v>
+        <v>56.90966090216123</v>
       </c>
       <c r="R25">
-        <v>11460.8205310546</v>
+        <v>512.186948119451</v>
       </c>
       <c r="S25">
-        <v>0.005381531372133494</v>
+        <v>0.0002961280355310638</v>
       </c>
       <c r="T25">
-        <v>0.005381531372133494</v>
+        <v>0.0002961280355310637</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N26">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O26">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P26">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q26">
-        <v>14278.68974072931</v>
+        <v>540.8276182801482</v>
       </c>
       <c r="R26">
-        <v>128508.2076665638</v>
+        <v>4867.448564521334</v>
       </c>
       <c r="S26">
-        <v>0.06034218486018141</v>
+        <v>0.002814183349951436</v>
       </c>
       <c r="T26">
-        <v>0.06034218486018141</v>
+        <v>0.002814183349951435</v>
       </c>
     </row>
   </sheetData>
